--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo Coto\PycharmProjects\Loja0321\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F40585-FEAD-4E02-B860-2F0C6D0428EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944FDC86-0324-4195-BAEA-95E195B32E67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5952" yWindow="4008" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitores" sheetId="2" r:id="rId1"/>
     <sheet name="Placas Gráficas" sheetId="1" r:id="rId2"/>
     <sheet name="Caixas" sheetId="3" r:id="rId3"/>
+    <sheet name="teste" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Código</t>
   </si>
@@ -310,7 +311,28 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -346,14 +368,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela13" displayName="Tabela13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela13" displayName="Tabela13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Marca" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sync" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Marca" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tamanho" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sync" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="7" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -371,6 +393,20 @@
     <tableColumn id="6" xr3:uid="{FFB35986-AE7C-4950-9091-2B68C9ECF840}" name="Preço" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C742A9CF-ADFF-4C5A-A1D7-023C91F9206F}" name="Código" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B0F03932-FE0F-4479-A117-55FE564DB92F}" name="Marca" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{433C088B-21FB-4A46-B8EE-CF17B5C52D37}" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{770574AD-7D6A-48EB-B80E-7776110AE0BD}" name="Sync" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3F5347F3-A037-47F6-8107-B9320D953344}" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -701,15 +737,15 @@
       <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -743,7 +779,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -760,7 +796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -777,7 +813,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -794,7 +830,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -811,7 +847,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -828,7 +864,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -845,7 +881,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -862,7 +898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -879,7 +915,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -896,7 +932,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -913,7 +949,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -946,17 +982,17 @@
       <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1032,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1052,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1072,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1092,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1112,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1152,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1192,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1176,7 +1212,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1232,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1229,17 +1265,17 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1250,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1297,7 @@
         <v>94.99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1308,7 @@
         <v>102.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1319,7 @@
         <v>37.99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1330,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1341,7 @@
         <v>419.99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1316,7 +1352,7 @@
         <v>94.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1363,7 @@
         <v>21.19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +1374,7 @@
         <v>391.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1385,7 @@
         <v>350.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1396,7 @@
         <v>267.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1407,7 @@
         <v>115.99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1382,7 +1418,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1393,7 +1429,7 @@
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1404,7 +1440,7 @@
         <v>78.989999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -1415,7 +1451,7 @@
         <v>37.79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1426,7 +1462,7 @@
         <v>51.99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1437,7 +1473,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1452,4 +1488,249 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C745761C-5412-4EC8-AEFA-88A1ADC556E1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944FDC86-0324-4195-BAEA-95E195B32E67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49E95E-86ED-4864-B9A5-0C62310598E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monitores" sheetId="2" r:id="rId1"/>
-    <sheet name="Placas Gráficas" sheetId="1" r:id="rId2"/>
-    <sheet name="Caixas" sheetId="3" r:id="rId3"/>
+    <sheet name="Mesas" sheetId="2" r:id="rId1"/>
+    <sheet name="Lavabos" sheetId="1" r:id="rId2"/>
+    <sheet name="Chaminés" sheetId="3" r:id="rId3"/>
     <sheet name="teste" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49E95E-86ED-4864-B9A5-0C62310598E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB37679-3CFD-4826-8F91-690647307D36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mesas" sheetId="2" r:id="rId1"/>
     <sheet name="Lavabos" sheetId="1" r:id="rId2"/>
     <sheet name="Chaminés" sheetId="3" r:id="rId3"/>
-    <sheet name="teste" sheetId="5" r:id="rId4"/>
+    <sheet name="Armários" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -979,7 +979,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C745761C-5412-4EC8-AEFA-88A1ADC556E1}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB37679-3CFD-4826-8F91-690647307D36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4DEFD-E85B-4D6A-B295-CB79D500BE78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mesas" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
   <si>
     <t>Código</t>
   </si>
@@ -246,6 +246,99 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>MESAS EM INOX</t>
+  </si>
+  <si>
+    <t>MESAS MURAIS COM ABA</t>
+  </si>
+  <si>
+    <t>MESAS BAIXAS</t>
+  </si>
+  <si>
+    <t>MESAS COM BLOCO 4 GAVETAS</t>
+  </si>
+  <si>
+    <t>BLOCO 4 GAVETAS</t>
+  </si>
+  <si>
+    <t>MESAS COM BLOCO 4 GAVETAS ABA 100mm</t>
+  </si>
+  <si>
+    <t>MESAS DE CORTE</t>
+  </si>
+  <si>
+    <t>MESAS DE CORTE TAMPO INOX + RILENE</t>
+  </si>
+  <si>
+    <t>CEPO</t>
+  </si>
+  <si>
+    <t>MESAS ANGULARES</t>
+  </si>
+  <si>
+    <t>MESAS ANGULARES COM ABA</t>
+  </si>
+  <si>
+    <t>MESAS DE CAFETARIA</t>
+  </si>
+  <si>
+    <t>MESAS DE TRIAGEM</t>
+  </si>
+  <si>
+    <t>MESAS DE ENTRADA À MÁQUINA LAVAR</t>
+  </si>
+  <si>
+    <t>MESAS DE SAÍDA À MÁQUINA LAVAR</t>
+  </si>
+  <si>
+    <t>MESAS SUSPENSAS</t>
+  </si>
+  <si>
+    <t>SUPORTES DE FORNO</t>
+  </si>
+  <si>
+    <t>MESAS DO CHEF COM ABA</t>
+  </si>
+  <si>
+    <t>1400x600x850</t>
+  </si>
+  <si>
+    <t>1600x600x850</t>
+  </si>
+  <si>
+    <t>1800x600x850</t>
+  </si>
+  <si>
+    <t>2000x700x850</t>
+  </si>
+  <si>
+    <t>1800x700x850</t>
+  </si>
+  <si>
+    <t>1000x700x850</t>
+  </si>
+  <si>
+    <t>1200x700x850</t>
+  </si>
+  <si>
+    <t>1600x700x850</t>
+  </si>
+  <si>
+    <t>1400x700x850</t>
+  </si>
+  <si>
+    <t>1800x600x600</t>
+  </si>
+  <si>
+    <t>2000x600x850</t>
+  </si>
+  <si>
+    <t>1800x700x600</t>
   </si>
 </sst>
 </file>
@@ -255,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +362,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -306,12 +417,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -348,12 +492,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -368,16 +506,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela13" displayName="Tabela13" ref="A1:E13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Marca" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tamanho" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sync" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="7" dataCellStyle="Moeda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela13" displayName="Tabela13" ref="A1:D20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coluna1" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{2587A171-2CF1-49F8-84F6-7C90FA798E02}" name="Tamanho" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="8" dataCellStyle="Moeda"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -397,14 +534,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C742A9CF-ADFF-4C5A-A1D7-023C91F9206F}" name="Código" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B0F03932-FE0F-4479-A117-55FE564DB92F}" name="Marca" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{433C088B-21FB-4A46-B8EE-CF17B5C52D37}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{770574AD-7D6A-48EB-B80E-7776110AE0BD}" name="Sync" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3F5347F3-A037-47F6-8107-B9320D953344}" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C742A9CF-ADFF-4C5A-A1D7-023C91F9206F}" name="Código" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B0F03932-FE0F-4479-A117-55FE564DB92F}" name="Marca" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{433C088B-21FB-4A46-B8EE-CF17B5C52D37}" name="Tamanho" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{770574AD-7D6A-48EB-B80E-7776110AE0BD}" name="Sync" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3F5347F3-A037-47F6-8107-B9320D953344}" name="Preço" dataDxfId="1" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -731,245 +868,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="7">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="7">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="7">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5">
-        <v>230</v>
-      </c>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="7">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="7">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1494,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C745761C-5412-4EC8-AEFA-88A1ADC556E1}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4DEFD-E85B-4D6A-B295-CB79D500BE78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FFFF5-C53E-4C5A-B7CA-729FF57E740F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
     <t>MESAS EM INOX</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>1800x700x600</t>
+  </si>
+  <si>
+    <t>Referencia</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +381,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -403,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -431,31 +438,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -479,6 +470,25 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
@@ -510,9 +520,9 @@
   <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coluna1" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{2587A171-2CF1-49F8-84F6-7C90FA798E02}" name="Tamanho" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Referencia" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{2587A171-2CF1-49F8-84F6-7C90FA798E02}" name="Tamanho" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="7" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -534,14 +544,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C742A9CF-ADFF-4C5A-A1D7-023C91F9206F}" name="Código" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B0F03932-FE0F-4479-A117-55FE564DB92F}" name="Marca" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{433C088B-21FB-4A46-B8EE-CF17B5C52D37}" name="Tamanho" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{770574AD-7D6A-48EB-B80E-7776110AE0BD}" name="Sync" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3F5347F3-A037-47F6-8107-B9320D953344}" name="Preço" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C742A9CF-ADFF-4C5A-A1D7-023C91F9206F}" name="Código" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B0F03932-FE0F-4479-A117-55FE564DB92F}" name="Marca" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{433C088B-21FB-4A46-B8EE-CF17B5C52D37}" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{770574AD-7D6A-48EB-B80E-7776110AE0BD}" name="Sync" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3F5347F3-A037-47F6-8107-B9320D953344}" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -871,7 +881,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,8 +895,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
+      <c r="B1" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>38</v>
@@ -900,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="7">
         <v>575</v>
@@ -914,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7">
         <v>1034</v>
@@ -928,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7">
         <v>722</v>
@@ -942,10 +952,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7">
         <v>1042</v>
@@ -956,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="7">
         <v>1155</v>
@@ -970,10 +980,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7">
         <v>1419</v>
@@ -984,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7">
         <v>1035</v>
@@ -998,10 +1008,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
         <v>951</v>
@@ -1012,10 +1022,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7">
         <v>869</v>
@@ -1026,10 +1036,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7">
         <v>613</v>
@@ -1040,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="7">
         <v>600</v>
@@ -1054,10 +1064,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
         <v>1304</v>
@@ -1068,10 +1078,10 @@
         <v>66</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="8">
         <v>590</v>
@@ -1082,10 +1092,10 @@
         <v>67</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7">
         <v>1063</v>
@@ -1096,10 +1106,10 @@
         <v>68</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
         <v>1428</v>
@@ -1110,10 +1120,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
         <v>539</v>
@@ -1124,10 +1134,10 @@
         <v>70</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="7">
         <v>635</v>
@@ -1138,10 +1148,10 @@
         <v>71</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7">
         <v>1381</v>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FFFF5-C53E-4C5A-B7CA-729FF57E740F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42AA5F1-4111-4B51-9463-91FCD4610A11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mesas" sheetId="2" r:id="rId1"/>
     <sheet name="Lavabos" sheetId="1" r:id="rId2"/>
-    <sheet name="Chaminés" sheetId="3" r:id="rId3"/>
+    <sheet name="Hottes" sheetId="3" r:id="rId3"/>
     <sheet name="Armários" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -30,20 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
   <si>
     <t>Código</t>
   </si>
   <si>
-    <t>Designação</t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -89,63 +83,6 @@
     <t>amd</t>
   </si>
   <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>Gigabyte</t>
-  </si>
-  <si>
-    <t>EVGA</t>
-  </si>
-  <si>
-    <t>Palit</t>
-  </si>
-  <si>
-    <t>Sapphire</t>
-  </si>
-  <si>
-    <t>RTX 2060</t>
-  </si>
-  <si>
-    <t>RTX 2070</t>
-  </si>
-  <si>
-    <t>RTX 2080</t>
-  </si>
-  <si>
-    <t>GTX 1660 TI</t>
-  </si>
-  <si>
-    <t>GTX 1070</t>
-  </si>
-  <si>
-    <t>GT 1030</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>GTS 210</t>
-  </si>
-  <si>
-    <t>Vega 56</t>
-  </si>
-  <si>
-    <t>Vega 64</t>
-  </si>
-  <si>
-    <t>RX 550</t>
-  </si>
-  <si>
-    <t>RX 590</t>
-  </si>
-  <si>
     <t>Tamanho</t>
   </si>
   <si>
@@ -173,63 +110,6 @@
     <t>LG</t>
   </si>
   <si>
-    <t>Sku</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Antec ISK 300-150 EC PC 150W Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Cooler Master CM 690 III Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>UNYKA - CAIXA DESKTOP SLIM M.ATX UK-2007 USB 3.0 400W PRETA</t>
-  </si>
-  <si>
-    <t>UNYKAch Blast Ice Torre Preto, Branco caixa para computador</t>
-  </si>
-  <si>
-    <t>ASUS - PC VIVOPC I5-7200U S/MEN S/ HD S/SO - UN65U-BM009M</t>
-  </si>
-  <si>
-    <t>MARS GAMING - BUNDLE - MARS GAMING - CAIXA MC0 VENTOINHA MF12G</t>
-  </si>
-  <si>
-    <t>ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul</t>
-  </si>
-  <si>
-    <t>ASUS UN65U-BM008M BGA 1356 2.40GHz i3-7100U Azul</t>
-  </si>
-  <si>
-    <t>COOLER MASTER - MASTER ATX MASTERCASE MAKER 5T PRETA SEM FONTE</t>
-  </si>
-  <si>
-    <t>NOX - Ark Gaming case</t>
-  </si>
-  <si>
-    <t>Aerocool BATTLEHAWK Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Cinzento, Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Preto, Branco caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS-1 Midi Tower Case - Black Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS3 Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool V3X Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Tacens AC017AD Mini-Torre Preto caixa para computador</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -339,6 +219,72 @@
   </si>
   <si>
     <t>Referencia</t>
+  </si>
+  <si>
+    <t>Ligne 700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligne 600 com cuba </t>
+  </si>
+  <si>
+    <t>DOSSERET 100</t>
+  </si>
+  <si>
+    <t>Aba 100</t>
+  </si>
+  <si>
+    <t>Backsplash 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work tables </t>
+  </si>
+  <si>
+    <t>Tiroirs Téléscopiques</t>
+  </si>
+  <si>
+    <t>Dosseret 100mm</t>
+  </si>
+  <si>
+    <t>Pia de aço inoxidável</t>
+  </si>
+  <si>
+    <t>Mesa de café</t>
+  </si>
+  <si>
+    <t>Pia de aço</t>
+  </si>
+  <si>
+    <t>Com cuba e escorredouro lateral</t>
+  </si>
+  <si>
+    <t>500x500x300</t>
+  </si>
+  <si>
+    <t>500x400x250</t>
+  </si>
+  <si>
+    <t>1280x510x340</t>
+  </si>
+  <si>
+    <t>800x600x850</t>
+  </si>
+  <si>
+    <t>1200x600x850</t>
+  </si>
+  <si>
+    <t>400x310x330</t>
+  </si>
+  <si>
+    <t>950x335x150</t>
+  </si>
+  <si>
+    <t>400x300x150</t>
+  </si>
+  <si>
+    <t>1606x510x230</t>
+  </si>
+  <si>
+    <t>330x300x170</t>
   </si>
 </sst>
 </file>
@@ -410,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,7 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,14 +474,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Código"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Fabricante"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Marca"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Designação"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Quantidade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Referencia"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Tamanho"/>
     <tableColumn id="6" xr3:uid="{FFB35986-AE7C-4950-9091-2B68C9ECF840}" name="Preço" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -544,6 +487,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{646BB4AC-63D9-431C-B82D-51E95F1184F6}" name="Tabela17" displayName="Tabela17" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{146D5BC4-96E9-4DE9-A7CE-69C602508989}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{43A322D7-E0F4-4EF9-83D0-80E7EED6DB0D}" name="Código"/>
+    <tableColumn id="3" xr3:uid="{EDBED46B-695C-44D6-A10C-EBCFA2181F05}" name="Referencia"/>
+    <tableColumn id="5" xr3:uid="{51755EF6-1146-4F25-9525-C8FEC2A23A85}" name="Tamanho"/>
+    <tableColumn id="6" xr3:uid="{09E8588B-5338-4067-8BB9-16C62F8A61FA}" name="Preço" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
@@ -880,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -895,265 +851,265 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>102</v>
+      <c r="B1" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="7">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6">
         <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="7">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6">
         <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="7">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6">
         <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6">
         <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="7">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6">
         <v>1155</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="7">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6">
         <v>1419</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="7">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6">
         <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="7">
+        <v>53</v>
+      </c>
+      <c r="D9" s="6">
         <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="7">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6">
         <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="7">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6">
         <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="6">
         <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>83</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="7">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6">
         <v>1304</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>84</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="8">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7">
         <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="7">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6">
         <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="7">
+        <v>59</v>
+      </c>
+      <c r="D16" s="6">
         <v>1428</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="7">
+        <v>59</v>
+      </c>
+      <c r="D17" s="6">
         <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="7">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6">
         <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>89</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="7">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6">
         <v>1381</v>
       </c>
     </row>
@@ -1161,7 +1117,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1175,280 +1131,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="5">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6">
-        <v>145</v>
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -1461,231 +1337,226 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="5">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="6">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="6">
-        <v>102.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="6">
-        <v>37.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="6">
-        <v>23.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="6">
-        <v>419.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6">
-        <v>21.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6">
-        <v>391.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="6">
-        <v>350.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="6">
-        <v>267.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="6">
-        <v>115.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="6">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="6">
-        <v>78.989999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="6">
-        <v>37.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6">
-        <v>51.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="6">
-        <v>37.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="6">
-        <v>19.09</v>
-      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1710,219 +1581,219 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
         <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
         <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
         <v>230</v>
       </c>
     </row>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42AA5F1-4111-4B51-9463-91FCD4610A11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3243E-22AE-4FEF-95E6-5FFE5DC9343B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>Código</t>
   </si>
@@ -294,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,16 +334,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -351,12 +371,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -386,6 +443,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -487,19 +576,6 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{646BB4AC-63D9-431C-B82D-51E95F1184F6}" name="Tabela17" displayName="Tabela17" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13" xr:uid="{146D5BC4-96E9-4DE9-A7CE-69C602508989}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{43A322D7-E0F4-4EF9-83D0-80E7EED6DB0D}" name="Código"/>
-    <tableColumn id="3" xr3:uid="{EDBED46B-695C-44D6-A10C-EBCFA2181F05}" name="Referencia"/>
-    <tableColumn id="5" xr3:uid="{51755EF6-1146-4F25-9525-C8FEC2A23A85}" name="Tamanho"/>
-    <tableColumn id="6" xr3:uid="{09E8588B-5338-4067-8BB9-16C62F8A61FA}" name="Preço" dataCellStyle="Moeda"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
@@ -837,7 +913,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,211 +1428,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="5">
-        <v>265</v>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20">
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="5">
-        <v>948</v>
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="5">
-        <v>630</v>
+      <c r="B4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="20">
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1027</v>
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5">
-        <v>988</v>
+      <c r="B6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1155</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2136</v>
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1419</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="5">
-        <v>886</v>
+      <c r="B8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1204</v>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="23">
+        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="5">
-        <v>642</v>
+      <c r="B10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="20">
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="5">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="5">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="23">
+        <v>613</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoy\PycharmProjects\apresenta-o02\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3243E-22AE-4FEF-95E6-5FFE5DC9343B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D18DB-F6D4-45FA-A0A7-96233055EC79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mesas" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>Código</t>
   </si>
@@ -74,42 +74,9 @@
     <t>12</t>
   </si>
   <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>nvidia</t>
-  </si>
-  <si>
-    <t>amd</t>
-  </si>
-  <si>
     <t>Tamanho</t>
   </si>
   <si>
-    <t>Sync</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>AOC</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <t>BenQ</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -285,6 +252,42 @@
   </si>
   <si>
     <t>330x300x170</t>
+  </si>
+  <si>
+    <t>Armário Parede Inox</t>
+  </si>
+  <si>
+    <t>Armários Verticais</t>
+  </si>
+  <si>
+    <t>Armário de Limpeza e Detergentes</t>
+  </si>
+  <si>
+    <t>Estanteria Modular - 4 Níveis</t>
+  </si>
+  <si>
+    <t>Carro Porta-Tabuleiros</t>
+  </si>
+  <si>
+    <t>2000 x 400 x 600mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600 x 400 x 1800mm	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675 x 400 x 1850mm - 2 portas	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 x 500 x 1800 mm	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 x 400 x 1800mm	</t>
+  </si>
+  <si>
+    <t>Bancadas de trabalho inox Rodadas fixas</t>
+  </si>
+  <si>
+    <t>MOVEL CAFETERIA</t>
   </si>
 </sst>
 </file>
@@ -294,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +345,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +374,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -413,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,20 +495,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
@@ -550,13 +573,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela13" displayName="Tabela13" ref="A1:D20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela13" displayName="Tabela13" ref="A1:D20" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Referencia" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{2587A171-2CF1-49F8-84F6-7C90FA798E02}" name="Tamanho" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Referencia" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2587A171-2CF1-49F8-84F6-7C90FA798E02}" name="Tamanho" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="6" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,14 +599,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C742A9CF-ADFF-4C5A-A1D7-023C91F9206F}" name="Código" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B0F03932-FE0F-4479-A117-55FE564DB92F}" name="Marca" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D69AFE71-6031-447F-9B90-CF6BCCB5DFE5}" name="Tabela134" displayName="Tabela134" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C742A9CF-ADFF-4C5A-A1D7-023C91F9206F}" name="Código" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B0F03932-FE0F-4479-A117-55FE564DB92F}" name="Referencia" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{433C088B-21FB-4A46-B8EE-CF17B5C52D37}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{770574AD-7D6A-48EB-B80E-7776110AE0BD}" name="Sync" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3F5347F3-A037-47F6-8107-B9320D953344}" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{3F5347F3-A037-47F6-8107-B9320D953344}" name="Preço" dataDxfId="1" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,280 +938,280 @@
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6">
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6">
         <v>1034</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6">
         <v>722</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6">
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6">
         <v>1155</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6">
         <v>1419</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6">
         <v>1035</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>951</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6">
         <v>869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6">
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6">
         <v>1304</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
       </c>
       <c r="D14" s="7">
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6">
         <v>1063</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6">
         <v>1428</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6">
         <v>539</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6">
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="6">
         <v>1381</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1213,7 +1235,7 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
@@ -1221,183 +1243,183 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5">
         <v>948</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5">
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5">
         <v>1027</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5">
         <v>988</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5">
         <v>2136</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5">
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5">
         <v>1204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5">
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5">
         <v>1313</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5">
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5">
         <v>999</v>
@@ -1415,11 +1437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
@@ -1427,155 +1449,155 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D2" s="20">
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D3" s="23">
         <v>1034</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D4" s="20">
         <v>722</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D5" s="23">
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D6" s="20">
         <v>1155</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" s="23">
         <v>1419</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" s="20">
         <v>1035</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D9" s="23">
         <v>951</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D10" s="20">
         <v>869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D11" s="23">
         <v>613</v>
@@ -1589,245 +1611,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C745761C-5412-4EC8-AEFA-88A1ADC556E1}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="2">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="2">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
+      <c r="B9" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="2">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
+      <c r="B10" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="4">
         <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>